--- a/tweets_nike_201809042210 (2).xlsx
+++ b/tweets_nike_201809042210 (2).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biaku\Documents\INSPER\Ciência dos Dados\Projeto 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biaku\Documents\GitHub\CD_Projeto2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050CDA2E-8212-48EB-AC58-43CA8EB55CD2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A30C395-F538-4FE9-855E-B998A50DED88}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1541,8 +1541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="71" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A133" sqref="A133"/>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="71" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A161" sqref="A161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2927,7 +2927,9 @@
       <c r="B133" s="3">
         <v>1</v>
       </c>
-      <c r="C133" s="3"/>
+      <c r="C133" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
@@ -2936,7 +2938,9 @@
       <c r="B134" s="3">
         <v>1</v>
       </c>
-      <c r="C134" s="3"/>
+      <c r="C134" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
@@ -2945,7 +2949,9 @@
       <c r="B135" s="3">
         <v>1</v>
       </c>
-      <c r="C135" s="3"/>
+      <c r="C135" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
@@ -2954,7 +2960,9 @@
       <c r="B136" s="3">
         <v>1</v>
       </c>
-      <c r="C136" s="3"/>
+      <c r="C136" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
@@ -2963,7 +2971,9 @@
       <c r="B137" s="3">
         <v>1</v>
       </c>
-      <c r="C137" s="3"/>
+      <c r="C137" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
@@ -2981,7 +2991,9 @@
       <c r="B139" s="3">
         <v>1</v>
       </c>
-      <c r="C139" s="3"/>
+      <c r="C139" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
@@ -3008,7 +3020,9 @@
       <c r="B142" s="3">
         <v>1</v>
       </c>
-      <c r="C142" s="3"/>
+      <c r="C142" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
@@ -3026,7 +3040,9 @@
       <c r="B144" s="3">
         <v>1</v>
       </c>
-      <c r="C144" s="3"/>
+      <c r="C144" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
@@ -3035,7 +3051,9 @@
       <c r="B145" s="3">
         <v>1</v>
       </c>
-      <c r="C145" s="3"/>
+      <c r="C145" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
@@ -3044,7 +3062,9 @@
       <c r="B146" s="3">
         <v>1</v>
       </c>
-      <c r="C146" s="3"/>
+      <c r="C146" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
@@ -3053,7 +3073,9 @@
       <c r="B147" s="3">
         <v>1</v>
       </c>
-      <c r="C147" s="3"/>
+      <c r="C147" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
@@ -3062,7 +3084,9 @@
       <c r="B148" s="3">
         <v>1</v>
       </c>
-      <c r="C148" s="3"/>
+      <c r="C148" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
@@ -3071,7 +3095,9 @@
       <c r="B149" s="3">
         <v>1</v>
       </c>
-      <c r="C149" s="3"/>
+      <c r="C149" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
@@ -3080,7 +3106,9 @@
       <c r="B150" s="3">
         <v>1</v>
       </c>
-      <c r="C150" s="3"/>
+      <c r="C150" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
@@ -3089,7 +3117,9 @@
       <c r="B151" s="3">
         <v>1</v>
       </c>
-      <c r="C151" s="3"/>
+      <c r="C151" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
@@ -3098,7 +3128,9 @@
       <c r="B152" s="3">
         <v>1</v>
       </c>
-      <c r="C152" s="3"/>
+      <c r="C152" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
@@ -3107,7 +3139,9 @@
       <c r="B153" s="3">
         <v>1</v>
       </c>
-      <c r="C153" s="3"/>
+      <c r="C153" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
@@ -3116,7 +3150,9 @@
       <c r="B154" s="3">
         <v>1</v>
       </c>
-      <c r="C154" s="3"/>
+      <c r="C154" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
@@ -3125,7 +3161,9 @@
       <c r="B155" s="3">
         <v>1</v>
       </c>
-      <c r="C155" s="3"/>
+      <c r="C155" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
@@ -3143,7 +3181,9 @@
       <c r="B157" s="3">
         <v>1</v>
       </c>
-      <c r="C157" s="3"/>
+      <c r="C157" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
@@ -3152,7 +3192,9 @@
       <c r="B158" s="3">
         <v>1</v>
       </c>
-      <c r="C158" s="3"/>
+      <c r="C158" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
@@ -3161,7 +3203,9 @@
       <c r="B159" s="3">
         <v>1</v>
       </c>
-      <c r="C159" s="3"/>
+      <c r="C159" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
@@ -3170,7 +3214,9 @@
       <c r="B160" s="3">
         <v>1</v>
       </c>
-      <c r="C160" s="3"/>
+      <c r="C160" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" t="s">

--- a/tweets_nike_201809042210 (2).xlsx
+++ b/tweets_nike_201809042210 (2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biaku\Documents\GitHub\CD_Projeto2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A30C395-F538-4FE9-855E-B998A50DED88}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D940AAE-768E-448D-87AA-E4EDDFE7B25C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1541,8 +1541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="71" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A161" sqref="A161"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="71" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3234,7 +3234,9 @@
       <c r="B162" s="3">
         <v>1</v>
       </c>
-      <c r="C162" s="3"/>
+      <c r="C162" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
@@ -3243,7 +3245,9 @@
       <c r="B163" s="3">
         <v>1</v>
       </c>
-      <c r="C163" s="3"/>
+      <c r="C163" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
@@ -3252,7 +3256,9 @@
       <c r="B164" s="3">
         <v>1</v>
       </c>
-      <c r="C164" s="3"/>
+      <c r="C164" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
@@ -3261,7 +3267,9 @@
       <c r="B165" s="3">
         <v>1</v>
       </c>
-      <c r="C165" s="3"/>
+      <c r="C165" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
@@ -3279,7 +3287,9 @@
       <c r="B167" s="3">
         <v>1</v>
       </c>
-      <c r="C167" s="3"/>
+      <c r="C167" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
@@ -3288,7 +3298,9 @@
       <c r="B168" s="3">
         <v>1</v>
       </c>
-      <c r="C168" s="3"/>
+      <c r="C168" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
@@ -3297,7 +3309,9 @@
       <c r="B169" s="3">
         <v>1</v>
       </c>
-      <c r="C169" s="3"/>
+      <c r="C169" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
@@ -3306,7 +3320,9 @@
       <c r="B170" s="3">
         <v>1</v>
       </c>
-      <c r="C170" s="3"/>
+      <c r="C170" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
@@ -3324,7 +3340,9 @@
       <c r="B172" s="3">
         <v>1</v>
       </c>
-      <c r="C172" s="3"/>
+      <c r="C172" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
@@ -3351,7 +3369,9 @@
       <c r="B175" s="3">
         <v>1</v>
       </c>
-      <c r="C175" s="3"/>
+      <c r="C175" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
@@ -3360,7 +3380,9 @@
       <c r="B176" s="3">
         <v>1</v>
       </c>
-      <c r="C176" s="3"/>
+      <c r="C176" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
@@ -3387,7 +3409,9 @@
       <c r="B179" s="3">
         <v>1</v>
       </c>
-      <c r="C179" s="3"/>
+      <c r="C179" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
@@ -3405,7 +3429,9 @@
       <c r="B181" s="3">
         <v>1</v>
       </c>
-      <c r="C181" s="3"/>
+      <c r="C181" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
@@ -3414,7 +3440,9 @@
       <c r="B182" s="3">
         <v>1</v>
       </c>
-      <c r="C182" s="3"/>
+      <c r="C182" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
@@ -3423,7 +3451,9 @@
       <c r="B183" s="3">
         <v>1</v>
       </c>
-      <c r="C183" s="3"/>
+      <c r="C183" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
@@ -3432,7 +3462,9 @@
       <c r="B184" s="3">
         <v>1</v>
       </c>
-      <c r="C184" s="3"/>
+      <c r="C184" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
@@ -3450,7 +3482,9 @@
       <c r="B186" s="3">
         <v>1</v>
       </c>
-      <c r="C186" s="3"/>
+      <c r="C186" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
@@ -3468,7 +3502,9 @@
       <c r="B188" s="3">
         <v>1</v>
       </c>
-      <c r="C188" s="3"/>
+      <c r="C188" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
@@ -3477,7 +3513,9 @@
       <c r="B189" s="3">
         <v>1</v>
       </c>
-      <c r="C189" s="3"/>
+      <c r="C189" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
@@ -3486,7 +3524,9 @@
       <c r="B190" s="3">
         <v>1</v>
       </c>
-      <c r="C190" s="3"/>
+      <c r="C190" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
@@ -3504,7 +3544,9 @@
       <c r="B192" s="3">
         <v>1</v>
       </c>
-      <c r="C192" s="3"/>
+      <c r="C192" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
@@ -3522,7 +3564,9 @@
       <c r="B194" s="3">
         <v>1</v>
       </c>
-      <c r="C194" s="3"/>
+      <c r="C194" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
@@ -3531,7 +3575,9 @@
       <c r="B195" s="3">
         <v>1</v>
       </c>
-      <c r="C195" s="3"/>
+      <c r="C195" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
@@ -3549,7 +3595,9 @@
       <c r="B197" s="3">
         <v>1</v>
       </c>
-      <c r="C197" s="3"/>
+      <c r="C197" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
@@ -3558,7 +3606,9 @@
       <c r="B198" s="3">
         <v>1</v>
       </c>
-      <c r="C198" s="3"/>
+      <c r="C198" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
@@ -3567,7 +3617,9 @@
       <c r="B199" s="3">
         <v>1</v>
       </c>
-      <c r="C199" s="3"/>
+      <c r="C199" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
@@ -3576,7 +3628,9 @@
       <c r="B200" s="3">
         <v>1</v>
       </c>
-      <c r="C200" s="3"/>
+      <c r="C200" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
@@ -3585,7 +3639,9 @@
       <c r="B201" s="3">
         <v>1</v>
       </c>
-      <c r="C201" s="3"/>
+      <c r="C201" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
@@ -3594,7 +3650,9 @@
       <c r="B202" s="3">
         <v>1</v>
       </c>
-      <c r="C202" s="3"/>
+      <c r="C202" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
@@ -3603,7 +3661,9 @@
       <c r="B203" s="3">
         <v>1</v>
       </c>
-      <c r="C203" s="3"/>
+      <c r="C203" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
@@ -3612,7 +3672,9 @@
       <c r="B204" s="3">
         <v>1</v>
       </c>
-      <c r="C204" s="3"/>
+      <c r="C204" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
@@ -3630,7 +3692,9 @@
       <c r="B206" s="3">
         <v>1</v>
       </c>
-      <c r="C206" s="3"/>
+      <c r="C206" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
@@ -3639,7 +3703,9 @@
       <c r="B207" s="3">
         <v>1</v>
       </c>
-      <c r="C207" s="3"/>
+      <c r="C207" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
@@ -3648,7 +3714,9 @@
       <c r="B208" s="3">
         <v>1</v>
       </c>
-      <c r="C208" s="3"/>
+      <c r="C208" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
@@ -3657,7 +3725,9 @@
       <c r="B209" s="3">
         <v>1</v>
       </c>
-      <c r="C209" s="3"/>
+      <c r="C209" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
@@ -3666,7 +3736,9 @@
       <c r="B210" s="3">
         <v>1</v>
       </c>
-      <c r="C210" s="3"/>
+      <c r="C210" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
@@ -3675,7 +3747,9 @@
       <c r="B211" s="3">
         <v>1</v>
       </c>
-      <c r="C211" s="3"/>
+      <c r="C211" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
@@ -3684,7 +3758,9 @@
       <c r="B212" s="3">
         <v>1</v>
       </c>
-      <c r="C212" s="3"/>
+      <c r="C212" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
@@ -3693,7 +3769,9 @@
       <c r="B213" s="3">
         <v>1</v>
       </c>
-      <c r="C213" s="3"/>
+      <c r="C213" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
@@ -3711,7 +3789,9 @@
       <c r="B215" s="3">
         <v>1</v>
       </c>
-      <c r="C215" s="3"/>
+      <c r="C215" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
@@ -3720,7 +3800,9 @@
       <c r="B216" s="3">
         <v>1</v>
       </c>
-      <c r="C216" s="3"/>
+      <c r="C216" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
@@ -3729,7 +3811,9 @@
       <c r="B217" s="3">
         <v>1</v>
       </c>
-      <c r="C217" s="3"/>
+      <c r="C217" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
@@ -3738,7 +3822,9 @@
       <c r="B218" s="3">
         <v>1</v>
       </c>
-      <c r="C218" s="3"/>
+      <c r="C218" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
@@ -3756,7 +3842,9 @@
       <c r="B220" s="3">
         <v>1</v>
       </c>
-      <c r="C220" s="3"/>
+      <c r="C220" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
@@ -3765,7 +3853,9 @@
       <c r="B221" s="3">
         <v>1</v>
       </c>
-      <c r="C221" s="3"/>
+      <c r="C221" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
@@ -3774,7 +3864,9 @@
       <c r="B222" s="3">
         <v>1</v>
       </c>
-      <c r="C222" s="3"/>
+      <c r="C222" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
@@ -3801,7 +3893,9 @@
       <c r="B225" s="3">
         <v>1</v>
       </c>
-      <c r="C225" s="3"/>
+      <c r="C225" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
@@ -3810,7 +3904,9 @@
       <c r="B226" s="3">
         <v>1</v>
       </c>
-      <c r="C226" s="3"/>
+      <c r="C226" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
@@ -3828,7 +3924,9 @@
       <c r="B228" s="3">
         <v>1</v>
       </c>
-      <c r="C228" s="3"/>
+      <c r="C228" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
@@ -3846,7 +3944,9 @@
       <c r="B230" s="3">
         <v>1</v>
       </c>
-      <c r="C230" s="3"/>
+      <c r="C230" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
@@ -3855,7 +3955,9 @@
       <c r="B231" s="3">
         <v>1</v>
       </c>
-      <c r="C231" s="3"/>
+      <c r="C231" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
@@ -3882,7 +3984,9 @@
       <c r="B234" s="3">
         <v>1</v>
       </c>
-      <c r="C234" s="3"/>
+      <c r="C234" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
@@ -3891,7 +3995,9 @@
       <c r="B235" s="3">
         <v>1</v>
       </c>
-      <c r="C235" s="3"/>
+      <c r="C235" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
@@ -3900,7 +4006,9 @@
       <c r="B236" s="3">
         <v>1</v>
       </c>
-      <c r="C236" s="3"/>
+      <c r="C236" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
@@ -3909,7 +4017,9 @@
       <c r="B237" s="3">
         <v>1</v>
       </c>
-      <c r="C237" s="3"/>
+      <c r="C237" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
@@ -3927,7 +4037,9 @@
       <c r="B239" s="3">
         <v>1</v>
       </c>
-      <c r="C239" s="3"/>
+      <c r="C239" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
@@ -3936,7 +4048,9 @@
       <c r="B240" s="3">
         <v>1</v>
       </c>
-      <c r="C240" s="3"/>
+      <c r="C240" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
@@ -3945,7 +4059,9 @@
       <c r="B241" s="3">
         <v>1</v>
       </c>
-      <c r="C241" s="3"/>
+      <c r="C241" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
@@ -3954,7 +4070,9 @@
       <c r="B242" s="3">
         <v>1</v>
       </c>
-      <c r="C242" s="3"/>
+      <c r="C242" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
@@ -3963,7 +4081,9 @@
       <c r="B243" s="3">
         <v>1</v>
       </c>
-      <c r="C243" s="3"/>
+      <c r="C243" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
@@ -3972,7 +4092,9 @@
       <c r="B244" s="3">
         <v>1</v>
       </c>
-      <c r="C244" s="3"/>
+      <c r="C244" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
@@ -3981,7 +4103,9 @@
       <c r="B245" s="3">
         <v>1</v>
       </c>
-      <c r="C245" s="3"/>
+      <c r="C245" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
@@ -3999,7 +4123,9 @@
       <c r="B247" s="3">
         <v>1</v>
       </c>
-      <c r="C247" s="3"/>
+      <c r="C247" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
@@ -4008,7 +4134,9 @@
       <c r="B248" s="3">
         <v>1</v>
       </c>
-      <c r="C248" s="3"/>
+      <c r="C248" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
@@ -4017,7 +4145,9 @@
       <c r="B249" s="3">
         <v>1</v>
       </c>
-      <c r="C249" s="3"/>
+      <c r="C249" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
@@ -4026,7 +4156,9 @@
       <c r="B250" s="3">
         <v>1</v>
       </c>
-      <c r="C250" s="3"/>
+      <c r="C250" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
@@ -4035,7 +4167,9 @@
       <c r="B251" s="3">
         <v>1</v>
       </c>
-      <c r="C251" s="3"/>
+      <c r="C251" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
@@ -4044,7 +4178,9 @@
       <c r="B252" s="3">
         <v>1</v>
       </c>
-      <c r="C252" s="3"/>
+      <c r="C252" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
@@ -4062,7 +4198,9 @@
       <c r="B254" s="3">
         <v>1</v>
       </c>
-      <c r="C254" s="3"/>
+      <c r="C254" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
@@ -4071,7 +4209,9 @@
       <c r="B255" s="3">
         <v>1</v>
       </c>
-      <c r="C255" s="3"/>
+      <c r="C255" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
@@ -4080,7 +4220,9 @@
       <c r="B256" s="3">
         <v>1</v>
       </c>
-      <c r="C256" s="3"/>
+      <c r="C256" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
@@ -4089,7 +4231,9 @@
       <c r="B257" s="3">
         <v>1</v>
       </c>
-      <c r="C257" s="3"/>
+      <c r="C257" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
@@ -4098,7 +4242,9 @@
       <c r="B258" s="3">
         <v>1</v>
       </c>
-      <c r="C258" s="3"/>
+      <c r="C258" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
@@ -4107,7 +4253,9 @@
       <c r="B259" s="3">
         <v>1</v>
       </c>
-      <c r="C259" s="3"/>
+      <c r="C259" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
@@ -4116,7 +4264,9 @@
       <c r="B260" s="3">
         <v>1</v>
       </c>
-      <c r="C260" s="3"/>
+      <c r="C260" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
@@ -4143,7 +4293,9 @@
       <c r="B263" s="3">
         <v>1</v>
       </c>
-      <c r="C263" s="3"/>
+      <c r="C263" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
@@ -4161,7 +4313,9 @@
       <c r="B265" s="3">
         <v>1</v>
       </c>
-      <c r="C265" s="3"/>
+      <c r="C265" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
@@ -4170,7 +4324,9 @@
       <c r="B266" s="3">
         <v>1</v>
       </c>
-      <c r="C266" s="3"/>
+      <c r="C266" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
@@ -4179,7 +4335,9 @@
       <c r="B267" s="3">
         <v>1</v>
       </c>
-      <c r="C267" s="3"/>
+      <c r="C267" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
@@ -4188,7 +4346,9 @@
       <c r="B268" s="3">
         <v>1</v>
       </c>
-      <c r="C268" s="3"/>
+      <c r="C268" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
@@ -4197,7 +4357,9 @@
       <c r="B269" s="3">
         <v>1</v>
       </c>
-      <c r="C269" s="3"/>
+      <c r="C269" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
@@ -4206,7 +4368,9 @@
       <c r="B270" s="3">
         <v>1</v>
       </c>
-      <c r="C270" s="3"/>
+      <c r="C270" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
@@ -4215,7 +4379,9 @@
       <c r="B271" s="3">
         <v>1</v>
       </c>
-      <c r="C271" s="3"/>
+      <c r="C271" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
@@ -4224,7 +4390,9 @@
       <c r="B272" s="3">
         <v>1</v>
       </c>
-      <c r="C272" s="3"/>
+      <c r="C272" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
@@ -4233,7 +4401,9 @@
       <c r="B273" s="3">
         <v>1</v>
       </c>
-      <c r="C273" s="3"/>
+      <c r="C273" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
@@ -4251,7 +4421,9 @@
       <c r="B275" s="3">
         <v>1</v>
       </c>
-      <c r="C275" s="3"/>
+      <c r="C275" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
@@ -4269,7 +4441,9 @@
       <c r="B277" s="3">
         <v>1</v>
       </c>
-      <c r="C277" s="3"/>
+      <c r="C277" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
@@ -4287,7 +4461,9 @@
       <c r="B279" s="3">
         <v>1</v>
       </c>
-      <c r="C279" s="3"/>
+      <c r="C279" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
@@ -4296,7 +4472,9 @@
       <c r="B280" s="3">
         <v>1</v>
       </c>
-      <c r="C280" s="3"/>
+      <c r="C280" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
@@ -4305,7 +4483,9 @@
       <c r="B281" s="3">
         <v>1</v>
       </c>
-      <c r="C281" s="3"/>
+      <c r="C281" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
@@ -4314,7 +4494,9 @@
       <c r="B282" s="3">
         <v>1</v>
       </c>
-      <c r="C282" s="3"/>
+      <c r="C282" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
@@ -4323,7 +4505,9 @@
       <c r="B283" s="3">
         <v>1</v>
       </c>
-      <c r="C283" s="3"/>
+      <c r="C283" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
@@ -4332,7 +4516,9 @@
       <c r="B284" s="3">
         <v>1</v>
       </c>
-      <c r="C284" s="3"/>
+      <c r="C284" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
@@ -4341,7 +4527,9 @@
       <c r="B285" s="3">
         <v>1</v>
       </c>
-      <c r="C285" s="3"/>
+      <c r="C285" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
@@ -4350,7 +4538,9 @@
       <c r="B286" s="3">
         <v>1</v>
       </c>
-      <c r="C286" s="3"/>
+      <c r="C286" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
@@ -4359,7 +4549,9 @@
       <c r="B287" s="3">
         <v>1</v>
       </c>
-      <c r="C287" s="3"/>
+      <c r="C287" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
@@ -4368,7 +4560,9 @@
       <c r="B288" s="3">
         <v>1</v>
       </c>
-      <c r="C288" s="3"/>
+      <c r="C288" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
